--- a/Y英雄齿轮养成表.xlsx
+++ b/Y英雄齿轮养成表.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="272">
   <si>
     <t>ID</t>
   </si>
@@ -78,10 +78,6 @@
     <t>克制属性</t>
   </si>
   <si>
-    <t>皮肤ID/皮肤等级
-详情 Data_HeroGearSkin</t>
-  </si>
-  <si>
     <t>全身icon</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>RestraintAttrType</t>
   </si>
   <si>
-    <t>DefaultSkinId</t>
-  </si>
-  <si>
     <t>FullBodyPath</t>
   </si>
   <si>
@@ -145,183 +138,186 @@
     <t>Water</t>
   </si>
   <si>
+    <t>Assets/ResBundles/UISprites/HeroSkill/FullBody/icon_Skin_101.png</t>
+  </si>
+  <si>
+    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_101.png</t>
+  </si>
+  <si>
+    <t>40101</t>
+  </si>
+  <si>
+    <t>SkinName_102</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_105.png</t>
+  </si>
+  <si>
+    <t>40102</t>
+  </si>
+  <si>
+    <t>SkinName_103</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_102.png</t>
+  </si>
+  <si>
+    <t>40103</t>
+  </si>
+  <si>
+    <t>SkinName_104</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>40104</t>
+  </si>
+  <si>
+    <t>SkinName_105</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40105</t>
+  </si>
+  <si>
+    <t>SkinName_106</t>
+  </si>
+  <si>
+    <t>40106</t>
+  </si>
+  <si>
+    <t>SkinName_107</t>
+  </si>
+  <si>
+    <t>40107</t>
+  </si>
+  <si>
+    <t>SkinName_108</t>
+  </si>
+  <si>
+    <t>40108</t>
+  </si>
+  <si>
+    <t>SkinName_109</t>
+  </si>
+  <si>
+    <t>40109</t>
+  </si>
+  <si>
+    <t>SkinName_110</t>
+  </si>
+  <si>
+    <t>40110</t>
+  </si>
+  <si>
+    <t>SkinName_111</t>
+  </si>
+  <si>
+    <t>40111</t>
+  </si>
+  <si>
+    <t>SkinName_112</t>
+  </si>
+  <si>
+    <t>40112</t>
+  </si>
+  <si>
+    <t>SkinName_113</t>
+  </si>
+  <si>
+    <t>40113</t>
+  </si>
+  <si>
+    <t>SkinName_114</t>
+  </si>
+  <si>
+    <t>40114</t>
+  </si>
+  <si>
+    <t>SkinName_115</t>
+  </si>
+  <si>
+    <t>40115</t>
+  </si>
+  <si>
+    <t>SkinName_116</t>
+  </si>
+  <si>
+    <t>40116</t>
+  </si>
+  <si>
+    <t>SkinName_117</t>
+  </si>
+  <si>
+    <t>40117</t>
+  </si>
+  <si>
+    <t>SkinName_118</t>
+  </si>
+  <si>
+    <t>40118</t>
+  </si>
+  <si>
+    <t>SkinName_119</t>
+  </si>
+  <si>
+    <t>40119</t>
+  </si>
+  <si>
+    <t>SkinName_120</t>
+  </si>
+  <si>
+    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_100.png</t>
+  </si>
+  <si>
+    <t>40120</t>
+  </si>
+  <si>
+    <t>齿轮ID</t>
+  </si>
+  <si>
+    <t>皮肤ID/皮肤等级</t>
+  </si>
+  <si>
+    <t>spine皮肤名</t>
+  </si>
+  <si>
+    <t>spine路径</t>
+  </si>
+  <si>
+    <t>num=1</t>
+  </si>
+  <si>
+    <t>SkinId</t>
+  </si>
+  <si>
+    <t>SpineSkin</t>
+  </si>
+  <si>
+    <t>SpineSkinPath</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
-    <t>Assets/ResBundles/UISprites/HeroSkill/FullBody/icon_Skin_101.png</t>
-  </si>
-  <si>
-    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_101.png</t>
-  </si>
-  <si>
-    <t>40101</t>
-  </si>
-  <si>
-    <t>SkinName_102</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_105.png</t>
-  </si>
-  <si>
-    <t>40102</t>
-  </si>
-  <si>
-    <t>SkinName_103</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_102.png</t>
-  </si>
-  <si>
-    <t>40103</t>
-  </si>
-  <si>
-    <t>SkinName_104</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>40104</t>
-  </si>
-  <si>
-    <t>SkinName_105</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>40105</t>
-  </si>
-  <si>
-    <t>SkinName_106</t>
-  </si>
-  <si>
-    <t>40106</t>
-  </si>
-  <si>
-    <t>SkinName_107</t>
-  </si>
-  <si>
-    <t>40107</t>
-  </si>
-  <si>
-    <t>SkinName_108</t>
-  </si>
-  <si>
-    <t>40108</t>
-  </si>
-  <si>
-    <t>SkinName_109</t>
-  </si>
-  <si>
-    <t>40109</t>
-  </si>
-  <si>
-    <t>SkinName_110</t>
-  </si>
-  <si>
-    <t>40110</t>
-  </si>
-  <si>
-    <t>SkinName_111</t>
-  </si>
-  <si>
-    <t>40111</t>
-  </si>
-  <si>
-    <t>SkinName_112</t>
-  </si>
-  <si>
-    <t>40112</t>
-  </si>
-  <si>
-    <t>SkinName_113</t>
-  </si>
-  <si>
-    <t>40113</t>
-  </si>
-  <si>
-    <t>SkinName_114</t>
-  </si>
-  <si>
-    <t>40114</t>
-  </si>
-  <si>
-    <t>SkinName_115</t>
-  </si>
-  <si>
-    <t>40115</t>
-  </si>
-  <si>
-    <t>SkinName_116</t>
-  </si>
-  <si>
-    <t>40116</t>
-  </si>
-  <si>
-    <t>SkinName_117</t>
-  </si>
-  <si>
-    <t>40117</t>
-  </si>
-  <si>
-    <t>SkinName_118</t>
-  </si>
-  <si>
-    <t>40118</t>
-  </si>
-  <si>
-    <t>SkinName_119</t>
-  </si>
-  <si>
-    <t>40119</t>
-  </si>
-  <si>
-    <t>SkinName_120</t>
-  </si>
-  <si>
-    <t>Assets/ResBundles/UISprites/RewardIcons/icon_Fragment_100.png</t>
-  </si>
-  <si>
-    <t>40120</t>
-  </si>
-  <si>
-    <t>齿轮ID</t>
-  </si>
-  <si>
-    <t>皮肤ID/皮肤等级</t>
-  </si>
-  <si>
-    <t>spine皮肤名</t>
-  </si>
-  <si>
-    <t>spine路径</t>
-  </si>
-  <si>
-    <t>num=1</t>
-  </si>
-  <si>
-    <t>SkinId</t>
-  </si>
-  <si>
-    <t>SpineSkin</t>
-  </si>
-  <si>
-    <t>SpineSkinPath</t>
-  </si>
-  <si>
     <t>skin1</t>
   </si>
   <si>
@@ -340,9 +336,6 @@
     <t>skin2</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
@@ -493,7 +486,7 @@
     <t>UpNeedPropNum</t>
   </si>
   <si>
-    <t>UnlockEntrys</t>
+    <t>UnlockEntryss</t>
   </si>
   <si>
     <t>ProductionCD</t>
@@ -894,10 +887,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -982,9 +975,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,14 +990,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,11 +1018,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,8 +1041,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,24 +1087,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,14 +1104,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1097,30 +1112,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,19 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,19 +1199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,13 +1229,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1253,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,37 +1313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,43 +1355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,17 +1446,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,11 +1496,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,35 +1518,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,10 +1551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1570,137 +1563,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,23 +1808,20 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2184,31 +2174,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.25" style="34" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="34" customWidth="1"/>
     <col min="3" max="3" width="27.3666666666667" style="35" customWidth="1"/>
     <col min="4" max="4" width="35.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="20" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="34"/>
+    <col min="5" max="5" width="62.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="20" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" ht="79" customHeight="1" spans="1:9">
+    <row r="1" s="32" customFormat="1" ht="79" customHeight="1" spans="1:8">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2221,670 +2210,600 @@
       <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="32" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    </row>
+    <row r="2" s="32" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="32" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
+      <c r="A3" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="32" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
-      <c r="A3" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" s="32" customFormat="1" ht="35.1" customHeight="1" spans="1:9">
+      <c r="G3" s="38"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" s="32" customFormat="1" ht="35.1" customHeight="1" spans="1:8">
       <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    </row>
+    <row r="5" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A5" s="30">
         <v>101</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="F5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="G5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="44">
+      <c r="H5" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="30">
         <v>102</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="G6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="30">
         <v>103</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="G7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="44">
+      <c r="H7" s="43">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="8" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A8" s="30">
         <v>104</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="44">
+      <c r="G8" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="30">
         <v>105</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="44">
+        <v>29</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="43">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="30">
         <v>106</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="44">
+      <c r="F10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="43">
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="11" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A11" s="30">
         <v>107</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="44">
+      <c r="G11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="43">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="30">
         <v>108</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="44">
+        <v>29</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="30">
         <v>109</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="44">
+        <v>34</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="43">
         <v>45</v>
       </c>
     </row>
-    <row r="14" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="14" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A14" s="30">
         <v>110</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="44">
+      <c r="G14" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="43">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="30">
         <v>111</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="44">
+      <c r="F15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="43">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="30">
         <v>112</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="44">
+        <v>34</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="43">
         <v>60</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="17" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A17" s="30">
         <v>113</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="44">
+      <c r="G17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="43">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="30">
         <v>114</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="44">
+        <v>29</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="43">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="30">
         <v>115</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="44">
+        <v>34</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="43">
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="20" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A20" s="30">
         <v>116</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="F20" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="44">
+      <c r="G20" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="43">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="30">
         <v>117</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="44">
+        <v>29</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="43">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="30">
         <v>118</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="44">
+        <v>34</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="23" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:9">
+    <row r="23" s="33" customFormat="1" ht="18.6" customHeight="1" spans="1:8">
       <c r="A23" s="30">
         <v>119</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="44">
+      <c r="G23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="43">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="30">
         <v>120</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="44">
+        <v>34</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="43">
         <v>100</v>
       </c>
     </row>
@@ -2902,10 +2821,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2918,35 +2837,35 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2957,1461 +2876,1423 @@
         <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="29">
-        <v>101</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="29" t="s">
-        <v>91</v>
+      <c r="A8" s="29">
+        <v>102</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="29">
-        <v>102</v>
-      </c>
       <c r="B11" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C11" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D13" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>92</v>
+      <c r="A14" s="29">
+        <v>103</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C14" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="29"/>
       <c r="B15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D16" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="29">
-        <v>103</v>
+      <c r="A17" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D18" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="29" t="s">
-        <v>93</v>
+      <c r="A20" s="29">
+        <v>104</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="29"/>
       <c r="B21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D22" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="29">
-        <v>104</v>
+      <c r="A23" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="29"/>
       <c r="B25" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D25" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:4">
-      <c r="A26" s="29" t="s">
-        <v>94</v>
+      <c r="A26" s="29">
+        <v>105</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="29"/>
       <c r="B27" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="29"/>
       <c r="B28" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D28" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:4">
-      <c r="A29" s="29">
-        <v>105</v>
+      <c r="A29" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C29" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="29"/>
       <c r="B30" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D30" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:4">
       <c r="A31" s="29"/>
       <c r="B31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D31" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:4">
-      <c r="A32" s="29" t="s">
-        <v>95</v>
+      <c r="A32" s="29">
+        <v>106</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C32" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:4">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D33" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:4">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D34" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="29">
-        <v>106</v>
+      <c r="A35" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:4">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D36" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:4">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D37" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:4">
-      <c r="A38" s="29" t="s">
-        <v>96</v>
+      <c r="A38" s="29">
+        <v>107</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C38" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:4">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D39" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:4">
       <c r="A40" s="29"/>
       <c r="B40" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D40" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:4">
-      <c r="A41" s="29">
-        <v>107</v>
+      <c r="A41" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C41" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:4">
       <c r="A42" s="29"/>
       <c r="B42" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:4">
       <c r="A43" s="29"/>
       <c r="B43" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:4">
-      <c r="A44" s="29" t="s">
-        <v>97</v>
+      <c r="A44" s="29">
+        <v>108</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C44" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:4">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D45" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:4">
       <c r="A46" s="29"/>
       <c r="B46" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D46" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:4">
-      <c r="A47" s="29">
-        <v>108</v>
+      <c r="A47" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C47" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:4">
       <c r="A48" s="29"/>
       <c r="B48" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D48" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:4">
       <c r="A49" s="29"/>
       <c r="B49" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D49" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:4">
-      <c r="A50" s="29" t="s">
-        <v>98</v>
+      <c r="A50" s="29">
+        <v>109</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C50" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:4">
       <c r="A51" s="29"/>
       <c r="B51" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D51" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:4">
       <c r="A52" s="29"/>
       <c r="B52" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D52" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:4">
-      <c r="A53" s="29">
-        <v>109</v>
+      <c r="A53" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C53" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:4">
       <c r="A54" s="29"/>
       <c r="B54" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D54" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:4">
       <c r="A55" s="29"/>
       <c r="B55" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D55" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:4">
-      <c r="A56" s="29" t="s">
-        <v>99</v>
+      <c r="A56" s="29">
+        <v>110</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C56" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:4">
       <c r="A57" s="29"/>
       <c r="B57" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D57" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="1:4">
       <c r="A58" s="29"/>
       <c r="B58" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D58" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:4">
-      <c r="A59" s="29">
-        <v>110</v>
+      <c r="A59" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C59" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:4">
       <c r="A60" s="29"/>
       <c r="B60" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D60" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:4">
       <c r="A61" s="29"/>
       <c r="B61" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D61" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="1:4">
-      <c r="A62" s="29" t="s">
-        <v>100</v>
+      <c r="A62" s="29">
+        <v>111</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C62" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="1:4">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D63" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:4">
       <c r="A64" s="29"/>
       <c r="B64" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D64" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:4">
-      <c r="A65" s="29">
-        <v>111</v>
+      <c r="A65" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C65" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:4">
       <c r="A66" s="29"/>
       <c r="B66" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D66" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:4">
       <c r="A67" s="29"/>
       <c r="B67" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D67" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="1:4">
-      <c r="A68" s="29" t="s">
-        <v>101</v>
+      <c r="A68" s="29">
+        <v>112</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C68" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="1:4">
       <c r="A69" s="29"/>
       <c r="B69" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D69" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:4">
       <c r="A70" s="29"/>
       <c r="B70" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D70" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="1:4">
-      <c r="A71" s="29">
-        <v>112</v>
+      <c r="A71" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C71" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="1:4">
       <c r="A72" s="29"/>
       <c r="B72" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:4">
       <c r="A73" s="29"/>
       <c r="B73" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D73" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:4">
-      <c r="A74" s="29" t="s">
-        <v>102</v>
+      <c r="A74" s="29">
+        <v>113</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C74" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="1:4">
       <c r="A75" s="29"/>
       <c r="B75" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D75" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="1:4">
       <c r="A76" s="29"/>
       <c r="B76" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D76" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="1:4">
-      <c r="A77" s="29">
-        <v>113</v>
+      <c r="A77" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C77" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:4">
       <c r="A78" s="29"/>
       <c r="B78" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D78" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:4">
       <c r="A79" s="29"/>
       <c r="B79" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D79" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:4">
-      <c r="A80" s="29" t="s">
-        <v>103</v>
+      <c r="A80" s="29">
+        <v>114</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C80" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:4">
       <c r="A81" s="29"/>
       <c r="B81" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D81" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="1:4">
       <c r="A82" s="29"/>
       <c r="B82" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D82" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="1:4">
-      <c r="A83" s="29">
-        <v>114</v>
+      <c r="A83" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C83" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="1:4">
       <c r="A84" s="29"/>
       <c r="B84" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D84" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:4">
       <c r="A85" s="29"/>
       <c r="B85" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D85" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:4">
-      <c r="A86" s="29" t="s">
-        <v>104</v>
+      <c r="A86" s="29">
+        <v>115</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C86" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:4">
       <c r="A87" s="29"/>
       <c r="B87" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D87" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="1:4">
       <c r="A88" s="29"/>
       <c r="B88" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D88" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:4">
-      <c r="A89" s="29">
-        <v>115</v>
+      <c r="A89" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C89" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:4">
       <c r="A90" s="29"/>
       <c r="B90" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D90" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:4">
       <c r="A91" s="29"/>
       <c r="B91" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D91" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:4">
-      <c r="A92" s="29" t="s">
-        <v>105</v>
+      <c r="A92" s="29">
+        <v>116</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C92" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:4">
       <c r="A93" s="29"/>
       <c r="B93" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D93" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:4">
       <c r="A94" s="29"/>
       <c r="B94" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D94" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="1:4">
-      <c r="A95" s="29">
-        <v>116</v>
+      <c r="A95" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C95" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="1:4">
       <c r="A96" s="29"/>
       <c r="B96" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D96" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="1:4">
       <c r="A97" s="29"/>
       <c r="B97" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D97" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="1:4">
-      <c r="A98" s="29" t="s">
-        <v>106</v>
+      <c r="A98" s="29">
+        <v>117</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C98" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="1:4">
       <c r="A99" s="29"/>
       <c r="B99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D99" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:4">
       <c r="A100" s="29"/>
       <c r="B100" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D100" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="1:4">
-      <c r="A101" s="29">
-        <v>117</v>
+      <c r="A101" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C101" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="1:4">
       <c r="A102" s="29"/>
       <c r="B102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C102" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D102" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="1:4">
       <c r="A103" s="29"/>
       <c r="B103" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D103" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="1:4">
-      <c r="A104" s="29" t="s">
-        <v>107</v>
+      <c r="A104" s="29">
+        <v>118</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C104" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="1:4">
       <c r="A105" s="29"/>
       <c r="B105" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D105" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="1:4">
       <c r="A106" s="29"/>
       <c r="B106" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C106" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D106" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="1:4">
-      <c r="A107" s="29">
-        <v>118</v>
+      <c r="A107" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C107" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="1:4">
       <c r="A108" s="29"/>
       <c r="B108" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C108" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D108" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:4">
       <c r="A109" s="29"/>
       <c r="B109" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D109" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="1:4">
-      <c r="A110" s="29" t="s">
-        <v>108</v>
+      <c r="A110" s="29">
+        <v>119</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C110" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="1:4">
       <c r="A111" s="29"/>
       <c r="B111" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D111" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="1:4">
       <c r="A112" s="29"/>
       <c r="B112" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D112" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" ht="16.5" spans="1:4">
-      <c r="A113" s="29">
-        <v>119</v>
+      <c r="A113" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C113" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="114" ht="16.5" spans="1:4">
       <c r="A114" s="29"/>
       <c r="B114" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C114" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D114" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" ht="16.5" spans="1:4">
       <c r="A115" s="29"/>
       <c r="B115" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C115" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D115" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" ht="16.5" spans="1:4">
-      <c r="A116" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" ht="16.5" spans="1:4">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" ht="16.5" spans="1:4">
-      <c r="A118" s="29"/>
-      <c r="B118" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -4449,7 +4330,6 @@
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A110:A112"/>
     <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4464,7 +4344,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4490,112 +4370,112 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="18.6" customHeight="1" spans="1:16">
       <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" ht="18.6" customHeight="1" spans="1:16">
       <c r="A2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="K2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="L2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="M2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="N2" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="1:16">
       <c r="A3" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4612,72 +4492,72 @@
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="1:16">
       <c r="A4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="K4" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="P4" s="23" t="s">
         <v>146</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="18">
         <v>101</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="17">
         <v>40</v>
@@ -4712,20 +4592,20 @@
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="1:16">
       <c r="A6" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="17">
         <v>10</v>
@@ -4737,7 +4617,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K6" s="24">
         <v>0.1</v>
@@ -4760,26 +4640,26 @@
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="17">
         <v>15</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="17">
         <v>15</v>
@@ -4806,26 +4686,26 @@
     </row>
     <row r="8" ht="18.6" customHeight="1" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="17">
         <v>20</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="17">
         <v>20</v>
@@ -4852,32 +4732,32 @@
     </row>
     <row r="9" ht="18.6" customHeight="1" spans="1:16">
       <c r="A9" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="17">
         <v>25</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="17">
         <v>25</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K9" s="24">
         <v>0.1</v>
@@ -4900,20 +4780,20 @@
     </row>
     <row r="10" ht="18.6" customHeight="1" spans="1:16">
       <c r="A10" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="17">
         <v>30</v>
@@ -4925,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K10" s="24">
         <v>0.1</v>
@@ -4948,20 +4828,20 @@
     </row>
     <row r="11" ht="18.6" customHeight="1" spans="1:16">
       <c r="A11" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" s="17">
         <v>35</v>
@@ -4973,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K11" s="24">
         <v>0.1</v>
@@ -4996,32 +4876,32 @@
     </row>
     <row r="12" ht="18.6" customHeight="1" spans="1:16">
       <c r="A12" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="17">
         <v>40</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="17">
         <v>12</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K12" s="24">
         <v>0.1</v>
@@ -5044,32 +4924,32 @@
     </row>
     <row r="13" ht="18.6" customHeight="1" spans="1:16">
       <c r="A13" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="17">
         <v>45</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="17">
         <v>10</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K13" s="24">
         <v>0.1</v>
@@ -5092,32 +4972,32 @@
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="1:16">
       <c r="A14" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" s="17">
         <v>50</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="17">
         <v>8</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K14" s="24">
         <v>0.1</v>
@@ -5140,20 +5020,20 @@
     </row>
     <row r="15" ht="18.6" customHeight="1" spans="1:16">
       <c r="A15" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G15" s="17">
         <v>55</v>
@@ -5165,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K15" s="24">
         <v>0.1</v>
@@ -5188,20 +5068,20 @@
     </row>
     <row r="16" ht="18.6" customHeight="1" spans="1:16">
       <c r="A16" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="17">
         <v>60</v>
@@ -5213,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="24">
         <v>0</v>
@@ -5236,26 +5116,26 @@
     </row>
     <row r="17" ht="18.6" customHeight="1" spans="1:16">
       <c r="A17" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="17">
         <v>65</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="17">
         <v>2</v>
@@ -5282,29 +5162,29 @@
     </row>
     <row r="18" ht="18.6" customHeight="1" spans="1:16">
       <c r="A18" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="17">
         <v>70</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="24">
@@ -5328,29 +5208,29 @@
     </row>
     <row r="19" ht="18.6" customHeight="1" spans="1:16">
       <c r="A19" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G19" s="17">
         <v>75</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="24">
@@ -5374,20 +5254,20 @@
     </row>
     <row r="20" ht="18.6" customHeight="1" spans="1:16">
       <c r="A20" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G20" s="17">
         <v>80</v>
@@ -5420,20 +5300,20 @@
     </row>
     <row r="21" ht="18.6" customHeight="1" spans="1:16">
       <c r="A21" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G21" s="17">
         <v>100</v>
@@ -5442,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="24">
@@ -5466,29 +5346,29 @@
     </row>
     <row r="22" ht="18.6" customHeight="1" spans="1:16">
       <c r="A22" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" s="17">
         <v>120</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="24">
@@ -5512,26 +5392,26 @@
     </row>
     <row r="23" ht="18.6" customHeight="1" spans="1:16">
       <c r="A23" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G23" s="17">
         <v>140</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" s="17">
         <v>4</v>
@@ -5558,29 +5438,29 @@
     </row>
     <row r="24" ht="18.6" customHeight="1" spans="1:16">
       <c r="A24" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G24" s="17">
         <v>160</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="24">
@@ -5604,22 +5484,22 @@
     </row>
     <row r="25" ht="18.6" customHeight="1" spans="1:16">
       <c r="A25" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="18">
         <v>102</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="17">
         <v>40</v>
@@ -5628,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K25" s="24">
         <v>0</v>
@@ -5654,20 +5534,20 @@
     </row>
     <row r="26" ht="18.6" customHeight="1" spans="1:16">
       <c r="A26" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="17">
         <v>10</v>
@@ -5679,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K26" s="24">
         <v>0</v>
@@ -5702,32 +5582,32 @@
     </row>
     <row r="27" ht="18.6" customHeight="1" spans="1:16">
       <c r="A27" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" s="17">
         <v>15</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K27" s="24">
         <v>0</v>
@@ -5750,32 +5630,32 @@
     </row>
     <row r="28" ht="18.6" customHeight="1" spans="1:16">
       <c r="A28" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" s="17">
         <v>20</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K28" s="24">
         <v>0</v>
@@ -5798,32 +5678,32 @@
     </row>
     <row r="29" ht="18.6" customHeight="1" spans="1:16">
       <c r="A29" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="17">
         <v>25</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I29" s="17">
         <v>6</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K29" s="24">
         <v>0</v>
@@ -5846,20 +5726,20 @@
     </row>
     <row r="30" ht="18.6" customHeight="1" spans="1:16">
       <c r="A30" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G30" s="17">
         <v>30</v>
@@ -5868,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K30" s="24">
         <v>0</v>
@@ -5894,20 +5774,20 @@
     </row>
     <row r="31" ht="18.6" customHeight="1" spans="1:16">
       <c r="A31" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G31" s="17">
         <v>35</v>
@@ -5916,10 +5796,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K31" s="24">
         <v>0</v>
@@ -5942,32 +5822,32 @@
     </row>
     <row r="32" ht="18.6" customHeight="1" spans="1:16">
       <c r="A32" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G32" s="17">
         <v>40</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" s="17">
         <v>7</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K32" s="24">
         <v>0</v>
@@ -5990,32 +5870,32 @@
     </row>
     <row r="33" ht="18.6" customHeight="1" spans="1:16">
       <c r="A33" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G33" s="17">
         <v>45</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K33" s="24">
         <v>0</v>
@@ -6038,32 +5918,32 @@
     </row>
     <row r="34" ht="18.6" customHeight="1" spans="1:16">
       <c r="A34" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G34" s="17">
         <v>50</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K34" s="24">
         <v>0</v>
@@ -6086,20 +5966,20 @@
     </row>
     <row r="35" ht="18.6" customHeight="1" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G35" s="17">
         <v>55</v>
@@ -6111,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K35" s="24">
         <v>0</v>
@@ -6134,20 +6014,20 @@
     </row>
     <row r="36" ht="18.6" customHeight="1" spans="1:16">
       <c r="A36" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G36" s="17">
         <v>60</v>
@@ -6156,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K36" s="24">
         <v>0</v>
@@ -6182,32 +6062,32 @@
     </row>
     <row r="37" ht="18.6" customHeight="1" spans="1:16">
       <c r="A37" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G37" s="17">
         <v>65</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K37" s="24">
         <v>0</v>
@@ -6230,26 +6110,26 @@
     </row>
     <row r="38" ht="18.6" customHeight="1" spans="1:16">
       <c r="A38" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G38" s="17">
         <v>70</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I38" s="17">
         <v>9</v>
@@ -6276,29 +6156,29 @@
     </row>
     <row r="39" ht="18.6" customHeight="1" spans="1:16">
       <c r="A39" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G39" s="17">
         <v>75</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="24">
@@ -6322,20 +6202,20 @@
     </row>
     <row r="40" ht="18.6" customHeight="1" spans="1:16">
       <c r="A40" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G40" s="17">
         <v>80</v>
@@ -6344,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="24">
@@ -6368,20 +6248,20 @@
     </row>
     <row r="41" ht="18.6" customHeight="1" spans="1:16">
       <c r="A41" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G41" s="17">
         <v>100</v>
@@ -6414,29 +6294,29 @@
     </row>
     <row r="42" ht="18.6" customHeight="1" spans="1:16">
       <c r="A42" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="17">
         <v>120</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="24">
@@ -6460,29 +6340,29 @@
     </row>
     <row r="43" ht="18.6" customHeight="1" spans="1:16">
       <c r="A43" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G43" s="17">
         <v>140</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="24">
@@ -6506,26 +6386,26 @@
     </row>
     <row r="44" ht="18.6" customHeight="1" spans="1:16">
       <c r="A44" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G44" s="17">
         <v>160</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I44" s="17">
         <v>11</v>
@@ -6552,20 +6432,20 @@
     </row>
     <row r="45" ht="18.6" customHeight="1" spans="1:16">
       <c r="A45" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45" s="17">
         <v>200</v>
@@ -6574,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="24">
@@ -6598,22 +6478,22 @@
     </row>
     <row r="46" ht="18.6" customHeight="1" spans="1:16">
       <c r="A46" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="18">
         <v>103</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="17">
         <v>40</v>
@@ -6622,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="24">
@@ -6646,26 +6526,26 @@
     </row>
     <row r="47" ht="18.6" customHeight="1" spans="1:16">
       <c r="A47" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G47" s="17">
         <v>10</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I47" s="17">
         <v>12</v>
@@ -6692,29 +6572,29 @@
     </row>
     <row r="48" ht="18.6" customHeight="1" spans="1:16">
       <c r="A48" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" s="17">
         <v>15</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="24">
@@ -6738,29 +6618,29 @@
     </row>
     <row r="49" ht="18.6" customHeight="1" spans="1:16">
       <c r="A49" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49" s="17">
         <v>20</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="24">
@@ -6784,20 +6664,20 @@
     </row>
     <row r="50" ht="18.6" customHeight="1" spans="1:16">
       <c r="A50" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G50" s="17">
         <v>25</v>
@@ -6830,22 +6710,22 @@
     </row>
     <row r="51" ht="18.6" customHeight="1" spans="1:16">
       <c r="A51" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="18">
         <v>104</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G51" s="17">
         <v>40</v>
@@ -6854,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="24">
@@ -6878,29 +6758,29 @@
     </row>
     <row r="52" ht="18.6" customHeight="1" spans="1:16">
       <c r="A52" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G52" s="17">
         <v>10</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="24">
@@ -6924,26 +6804,26 @@
     </row>
     <row r="53" ht="18.6" customHeight="1" spans="1:16">
       <c r="A53" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" s="17">
         <v>15</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I53" s="17">
         <v>14</v>
@@ -6970,29 +6850,29 @@
     </row>
     <row r="54" ht="18.6" customHeight="1" spans="1:16">
       <c r="A54" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G54" s="17">
         <v>20</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="24">
@@ -7016,20 +6896,20 @@
     </row>
     <row r="55" ht="18.6" customHeight="1" spans="1:16">
       <c r="A55" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G55" s="17">
         <v>25</v>
@@ -7038,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="24">
@@ -7062,22 +6942,22 @@
     </row>
     <row r="56" ht="18.6" customHeight="1" spans="1:16">
       <c r="A56" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="18">
         <v>105</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G56" s="17">
         <v>40</v>
@@ -7110,29 +6990,29 @@
     </row>
     <row r="57" ht="18.6" customHeight="1" spans="1:16">
       <c r="A57" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G57" s="17">
         <v>10</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="24">
@@ -7156,29 +7036,29 @@
     </row>
     <row r="58" ht="18.6" customHeight="1" spans="1:16">
       <c r="A58" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" s="17">
         <v>15</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="24">
@@ -7202,26 +7082,26 @@
     </row>
     <row r="59" ht="18.6" customHeight="1" spans="1:16">
       <c r="A59" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G59" s="17">
         <v>20</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I59" s="17">
         <v>16</v>
@@ -7248,20 +7128,20 @@
     </row>
     <row r="60" ht="18.6" customHeight="1" spans="1:16">
       <c r="A60" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G60" s="17">
         <v>25</v>
@@ -7270,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="24">
@@ -7294,22 +7174,22 @@
     </row>
     <row r="61" ht="18.6" customHeight="1" spans="1:16">
       <c r="A61" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B61" s="18">
         <v>106</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G61" s="17">
         <v>40</v>
@@ -7318,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="24">
@@ -7342,26 +7222,26 @@
     </row>
     <row r="62" ht="18.6" customHeight="1" spans="1:16">
       <c r="A62" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G62" s="17">
         <v>10</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I62" s="17">
         <v>17</v>
@@ -7388,29 +7268,29 @@
     </row>
     <row r="63" ht="18.6" customHeight="1" spans="1:16">
       <c r="A63" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G63" s="17">
         <v>15</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="24">
@@ -7434,29 +7314,29 @@
     </row>
     <row r="64" ht="18.6" customHeight="1" spans="1:16">
       <c r="A64" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G64" s="17">
         <v>20</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="24">
@@ -7480,20 +7360,20 @@
     </row>
     <row r="65" ht="18.6" customHeight="1" spans="1:16">
       <c r="A65" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G65" s="17">
         <v>25</v>
@@ -7526,22 +7406,22 @@
     </row>
     <row r="66" ht="18.6" customHeight="1" spans="1:16">
       <c r="A66" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B66" s="18">
         <v>107</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G66" s="17">
         <v>40</v>
@@ -7550,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="24">
@@ -7574,29 +7454,29 @@
     </row>
     <row r="67" ht="18.6" customHeight="1" spans="1:16">
       <c r="A67" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G67" s="17">
         <v>10</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="24">
@@ -7620,26 +7500,26 @@
     </row>
     <row r="68" ht="18.6" customHeight="1" spans="1:16">
       <c r="A68" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G68" s="17">
         <v>15</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I68" s="17">
         <v>19</v>
@@ -7666,29 +7546,29 @@
     </row>
     <row r="69" ht="18.6" customHeight="1" spans="1:16">
       <c r="A69" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G69" s="17">
         <v>20</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="24">
@@ -7712,20 +7592,20 @@
     </row>
     <row r="70" ht="18.6" customHeight="1" spans="1:16">
       <c r="A70" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G70" s="17">
         <v>25</v>
@@ -7734,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="24">
@@ -7758,22 +7638,22 @@
     </row>
     <row r="71" ht="18.6" customHeight="1" spans="1:16">
       <c r="A71" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="18">
         <v>108</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G71" s="17">
         <v>40</v>
@@ -7806,29 +7686,29 @@
     </row>
     <row r="72" ht="18.6" customHeight="1" spans="1:16">
       <c r="A72" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72" s="17">
         <v>10</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="24">
@@ -7852,29 +7732,29 @@
     </row>
     <row r="73" ht="18.6" customHeight="1" spans="1:16">
       <c r="A73" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G73" s="17">
         <v>15</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="24">
@@ -7898,26 +7778,26 @@
     </row>
     <row r="74" ht="18.6" customHeight="1" spans="1:16">
       <c r="A74" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G74" s="17">
         <v>20</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I74" s="17">
         <v>21</v>
@@ -7944,20 +7824,20 @@
     </row>
     <row r="75" ht="18.6" customHeight="1" spans="1:16">
       <c r="A75" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G75" s="17">
         <v>25</v>
@@ -7966,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="24">
@@ -7990,22 +7870,22 @@
     </row>
     <row r="76" ht="18.6" customHeight="1" spans="1:16">
       <c r="A76" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="18">
         <v>109</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G76" s="17">
         <v>40</v>
@@ -8014,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="24">
@@ -8038,26 +7918,26 @@
     </row>
     <row r="77" ht="18.6" customHeight="1" spans="1:16">
       <c r="A77" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G77" s="17">
         <v>10</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I77" s="17">
         <v>22</v>
@@ -8084,29 +7964,29 @@
     </row>
     <row r="78" ht="18.6" customHeight="1" spans="1:16">
       <c r="A78" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G78" s="17">
         <v>15</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="24">
@@ -8130,29 +8010,29 @@
     </row>
     <row r="79" ht="18.6" customHeight="1" spans="1:16">
       <c r="A79" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G79" s="17">
         <v>20</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="24">
@@ -8176,20 +8056,20 @@
     </row>
     <row r="80" ht="18.6" customHeight="1" spans="1:16">
       <c r="A80" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G80" s="17">
         <v>25</v>
@@ -8222,22 +8102,22 @@
     </row>
     <row r="81" ht="18.6" customHeight="1" spans="1:16">
       <c r="A81" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" s="18">
         <v>110</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G81" s="17">
         <v>40</v>
@@ -8246,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="24">
@@ -8270,29 +8150,29 @@
     </row>
     <row r="82" ht="18.6" customHeight="1" spans="1:16">
       <c r="A82" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G82" s="17">
         <v>10</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="24">
@@ -8316,26 +8196,26 @@
     </row>
     <row r="83" ht="18.6" customHeight="1" spans="1:16">
       <c r="A83" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83" s="17">
         <v>15</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I83" s="17">
         <v>24</v>
@@ -8362,29 +8242,29 @@
     </row>
     <row r="84" ht="18.6" customHeight="1" spans="1:16">
       <c r="A84" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G84" s="17">
         <v>20</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="24">
@@ -8408,20 +8288,20 @@
     </row>
     <row r="85" ht="18.6" customHeight="1" spans="1:16">
       <c r="A85" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G85" s="17">
         <v>25</v>
@@ -8430,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="24">
@@ -8454,22 +8334,22 @@
     </row>
     <row r="86" ht="18.6" customHeight="1" spans="1:16">
       <c r="A86" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B86" s="18">
         <v>111</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G86" s="17">
         <v>40</v>
@@ -8502,29 +8382,29 @@
     </row>
     <row r="87" ht="18.6" customHeight="1" spans="1:16">
       <c r="A87" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G87" s="17">
         <v>10</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="24">
@@ -8548,29 +8428,29 @@
     </row>
     <row r="88" ht="18.6" customHeight="1" spans="1:16">
       <c r="A88" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G88" s="17">
         <v>15</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="24">
@@ -8594,26 +8474,26 @@
     </row>
     <row r="89" ht="18.6" customHeight="1" spans="1:16">
       <c r="A89" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G89" s="17">
         <v>20</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I89" s="17">
         <v>26</v>
@@ -8640,20 +8520,20 @@
     </row>
     <row r="90" ht="18.6" customHeight="1" spans="1:16">
       <c r="A90" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G90" s="17">
         <v>25</v>
@@ -8662,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="24">
@@ -8686,22 +8566,22 @@
     </row>
     <row r="91" ht="18.6" customHeight="1" spans="1:16">
       <c r="A91" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="18">
         <v>112</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G91" s="17">
         <v>40</v>
@@ -8710,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="24">
@@ -8734,26 +8614,26 @@
     </row>
     <row r="92" ht="18.6" customHeight="1" spans="1:16">
       <c r="A92" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92" s="17">
         <v>10</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I92" s="17">
         <v>27</v>
@@ -8780,29 +8660,29 @@
     </row>
     <row r="93" ht="18.6" customHeight="1" spans="1:16">
       <c r="A93" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93" s="17">
         <v>15</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="24">
@@ -8826,29 +8706,29 @@
     </row>
     <row r="94" ht="18.6" customHeight="1" spans="1:16">
       <c r="A94" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G94" s="17">
         <v>20</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="24">
@@ -8872,20 +8752,20 @@
     </row>
     <row r="95" ht="18.6" customHeight="1" spans="1:16">
       <c r="A95" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G95" s="17">
         <v>25</v>
@@ -8918,22 +8798,22 @@
     </row>
     <row r="96" ht="18.6" customHeight="1" spans="1:16">
       <c r="A96" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B96" s="18">
         <v>113</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G96" s="17">
         <v>40</v>
@@ -8942,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="24">
@@ -8966,29 +8846,29 @@
     </row>
     <row r="97" ht="18.6" customHeight="1" spans="1:16">
       <c r="A97" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G97" s="17">
         <v>10</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="24">
@@ -9012,26 +8892,26 @@
     </row>
     <row r="98" ht="18.6" customHeight="1" spans="1:16">
       <c r="A98" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" s="17">
         <v>15</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I98" s="17">
         <v>29</v>
@@ -9058,29 +8938,29 @@
     </row>
     <row r="99" ht="18.6" customHeight="1" spans="1:16">
       <c r="A99" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G99" s="17">
         <v>20</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="24">
@@ -9104,20 +8984,20 @@
     </row>
     <row r="100" ht="18.6" customHeight="1" spans="1:16">
       <c r="A100" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G100" s="17">
         <v>25</v>
@@ -9126,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="24">
@@ -9150,22 +9030,22 @@
     </row>
     <row r="101" ht="18.6" customHeight="1" spans="1:16">
       <c r="A101" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="18">
         <v>114</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G101" s="17">
         <v>40</v>
@@ -9198,29 +9078,29 @@
     </row>
     <row r="102" ht="18.6" customHeight="1" spans="1:16">
       <c r="A102" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G102" s="17">
         <v>10</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J102" s="16"/>
       <c r="K102" s="24">
@@ -9244,29 +9124,29 @@
     </row>
     <row r="103" ht="18.6" customHeight="1" spans="1:16">
       <c r="A103" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G103" s="17">
         <v>15</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="24">
@@ -9290,26 +9170,26 @@
     </row>
     <row r="104" ht="18.6" customHeight="1" spans="1:16">
       <c r="A104" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G104" s="17">
         <v>20</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I104" s="17">
         <v>31</v>
@@ -9336,20 +9216,20 @@
     </row>
     <row r="105" ht="18.6" customHeight="1" spans="1:16">
       <c r="A105" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G105" s="17">
         <v>25</v>
@@ -9358,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="24">
@@ -9382,22 +9262,22 @@
     </row>
     <row r="106" ht="18.6" customHeight="1" spans="1:16">
       <c r="A106" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B106" s="18">
         <v>115</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G106" s="17">
         <v>40</v>
@@ -9406,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="24">
@@ -9430,26 +9310,26 @@
     </row>
     <row r="107" ht="18.6" customHeight="1" spans="1:16">
       <c r="A107" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G107" s="17">
         <v>10</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I107" s="17">
         <v>32</v>
@@ -9476,29 +9356,29 @@
     </row>
     <row r="108" ht="18.6" customHeight="1" spans="1:16">
       <c r="A108" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G108" s="17">
         <v>15</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="24">
@@ -9522,29 +9402,29 @@
     </row>
     <row r="109" ht="18.6" customHeight="1" spans="1:16">
       <c r="A109" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G109" s="17">
         <v>20</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="24">
@@ -9568,20 +9448,20 @@
     </row>
     <row r="110" ht="18.6" customHeight="1" spans="1:16">
       <c r="A110" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G110" s="17">
         <v>25</v>
@@ -9614,22 +9494,22 @@
     </row>
     <row r="111" ht="18.6" customHeight="1" spans="1:16">
       <c r="A111" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B111" s="18">
         <v>116</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G111" s="17">
         <v>40</v>
@@ -9638,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="24">
@@ -9662,29 +9542,29 @@
     </row>
     <row r="112" ht="18.6" customHeight="1" spans="1:16">
       <c r="A112" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G112" s="17">
         <v>10</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="24">
@@ -9708,26 +9588,26 @@
     </row>
     <row r="113" ht="18.6" customHeight="1" spans="1:16">
       <c r="A113" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G113" s="17">
         <v>15</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I113" s="17">
         <v>34</v>
@@ -9754,29 +9634,29 @@
     </row>
     <row r="114" ht="18.6" customHeight="1" spans="1:16">
       <c r="A114" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G114" s="17">
         <v>20</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="24">
@@ -9800,20 +9680,20 @@
     </row>
     <row r="115" ht="18.6" customHeight="1" spans="1:16">
       <c r="A115" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G115" s="17">
         <v>25</v>
@@ -9822,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J115" s="16"/>
       <c r="K115" s="24">
@@ -9846,22 +9726,22 @@
     </row>
     <row r="116" ht="18.6" customHeight="1" spans="1:16">
       <c r="A116" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" s="18">
         <v>117</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G116" s="17">
         <v>40</v>
@@ -9894,29 +9774,29 @@
     </row>
     <row r="117" ht="18.6" customHeight="1" spans="1:16">
       <c r="A117" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G117" s="17">
         <v>10</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="24">
@@ -9940,29 +9820,29 @@
     </row>
     <row r="118" ht="18.6" customHeight="1" spans="1:16">
       <c r="A118" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G118" s="17">
         <v>15</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="24">
@@ -9986,26 +9866,26 @@
     </row>
     <row r="119" ht="18.6" customHeight="1" spans="1:16">
       <c r="A119" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G119" s="17">
         <v>20</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I119" s="17">
         <v>36</v>
@@ -10032,20 +9912,20 @@
     </row>
     <row r="120" ht="18.6" customHeight="1" spans="1:16">
       <c r="A120" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G120" s="17">
         <v>25</v>
@@ -10054,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="24">
@@ -10078,22 +9958,22 @@
     </row>
     <row r="121" ht="18.6" customHeight="1" spans="1:16">
       <c r="A121" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B121" s="18">
         <v>118</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G121" s="17">
         <v>40</v>
@@ -10102,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J121" s="16"/>
       <c r="K121" s="24">
@@ -10126,26 +10006,26 @@
     </row>
     <row r="122" ht="18.6" customHeight="1" spans="1:16">
       <c r="A122" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G122" s="17">
         <v>10</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I122" s="17">
         <v>37</v>
@@ -10172,29 +10052,29 @@
     </row>
     <row r="123" ht="18.6" customHeight="1" spans="1:16">
       <c r="A123" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G123" s="17">
         <v>15</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J123" s="16"/>
       <c r="K123" s="24">
@@ -10218,29 +10098,29 @@
     </row>
     <row r="124" ht="18.6" customHeight="1" spans="1:16">
       <c r="A124" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G124" s="17">
         <v>20</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J124" s="16"/>
       <c r="K124" s="24">
@@ -10264,20 +10144,20 @@
     </row>
     <row r="125" ht="18.6" customHeight="1" spans="1:16">
       <c r="A125" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B125" s="18"/>
       <c r="C125" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G125" s="17">
         <v>25</v>
@@ -10310,22 +10190,22 @@
     </row>
     <row r="126" ht="18.6" customHeight="1" spans="1:16">
       <c r="A126" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" s="18">
         <v>119</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G126" s="17">
         <v>40</v>
@@ -10334,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J126" s="16"/>
       <c r="K126" s="24">
@@ -10358,29 +10238,29 @@
     </row>
     <row r="127" ht="18.6" customHeight="1" spans="1:16">
       <c r="A127" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G127" s="17">
         <v>10</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J127" s="16"/>
       <c r="K127" s="24">
@@ -10404,26 +10284,26 @@
     </row>
     <row r="128" ht="18.6" customHeight="1" spans="1:16">
       <c r="A128" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G128" s="17">
         <v>15</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I128" s="17">
         <v>39</v>
@@ -10450,29 +10330,29 @@
     </row>
     <row r="129" ht="18.6" customHeight="1" spans="1:16">
       <c r="A129" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G129" s="17">
         <v>20</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="24">
@@ -10496,20 +10376,20 @@
     </row>
     <row r="130" ht="18.6" customHeight="1" spans="1:16">
       <c r="A130" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G130" s="17">
         <v>25</v>
@@ -10518,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="24">
@@ -10542,22 +10422,22 @@
     </row>
     <row r="131" ht="18.6" customHeight="1" spans="1:16">
       <c r="A131" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" s="18">
         <v>120</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G131" s="17">
         <v>40</v>
@@ -10590,29 +10470,29 @@
     </row>
     <row r="132" ht="18.6" customHeight="1" spans="1:16">
       <c r="A132" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B132" s="18"/>
       <c r="C132" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G132" s="17">
         <v>10</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J132" s="16"/>
       <c r="K132" s="24">
@@ -10636,29 +10516,29 @@
     </row>
     <row r="133" ht="18.6" customHeight="1" spans="1:16">
       <c r="A133" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G133" s="17">
         <v>15</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="24">
@@ -10682,26 +10562,26 @@
     </row>
     <row r="134" ht="18.6" customHeight="1" spans="1:16">
       <c r="A134" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G134" s="17">
         <v>20</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I134" s="17">
         <v>41</v>
@@ -10728,20 +10608,20 @@
     </row>
     <row r="135" ht="18.6" customHeight="1" spans="1:16">
       <c r="A135" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G135" s="17">
         <v>25</v>
@@ -10750,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J135" s="16"/>
       <c r="K135" s="24">
@@ -10820,22 +10700,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -10875,50 +10755,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7"/>
@@ -10932,22 +10812,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:7">
